--- a/league_standings/La_Liga_standing.xlsx
+++ b/league_standings/La_Liga_standing.xlsx
@@ -555,16 +555,16 @@
         <v>2.26</v>
       </c>
       <c r="M2" t="n">
-        <v>73.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="N2" t="n">
         <v>31.8</v>
       </c>
       <c r="O2" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="P2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -954,16 +954,16 @@
         <v>1.39</v>
       </c>
       <c r="M9" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="N9" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="P9" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1014,13 +1014,13 @@
         <v>33.9</v>
       </c>
       <c r="N10" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
         <v>30.2</v>
       </c>
       <c r="N12" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="O12" t="n">
-        <v>-7.2</v>
+        <v>-7.1</v>
       </c>
       <c r="P12" t="n">
         <v>-0.23</v>
@@ -1302,7 +1302,7 @@
         <v>46</v>
       </c>
       <c r="O15" t="n">
-        <v>-19.8</v>
+        <v>-19.7</v>
       </c>
       <c r="P15" t="n">
         <v>-0.66</v>
@@ -1524,13 +1524,13 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="N19" t="n">
-        <v>56.6</v>
+        <v>56.5</v>
       </c>
       <c r="O19" t="n">
-        <v>-25.7</v>
+        <v>-25.8</v>
       </c>
       <c r="P19" t="n">
         <v>-0.83</v>
@@ -1584,10 +1584,10 @@
         <v>28</v>
       </c>
       <c r="N20" t="n">
-        <v>51.5</v>
+        <v>51.6</v>
       </c>
       <c r="O20" t="n">
-        <v>-23.4</v>
+        <v>-23.6</v>
       </c>
       <c r="P20" t="n">
         <v>-0.76</v>
